--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H2">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I2">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J2">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.519140333333333</v>
+        <v>1.834290333333333</v>
       </c>
       <c r="N2">
-        <v>4.557421</v>
+        <v>5.502871</v>
       </c>
       <c r="O2">
-        <v>0.09892575512374291</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="P2">
-        <v>0.0989257551237429</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="Q2">
-        <v>0.1022340933924445</v>
+        <v>13.90963576391522</v>
       </c>
       <c r="R2">
-        <v>0.920106840532</v>
+        <v>125.186721875237</v>
       </c>
       <c r="S2">
-        <v>0.0008680391808105511</v>
+        <v>0.1176925002518818</v>
       </c>
       <c r="T2">
-        <v>0.0008680391808105511</v>
+        <v>0.1176925002518818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H3">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I3">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J3">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>33.849725</v>
       </c>
       <c r="O3">
-        <v>0.7347597701322829</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="P3">
-        <v>0.7347597701322828</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="Q3">
-        <v>0.7593320755222223</v>
+        <v>85.56212665328611</v>
       </c>
       <c r="R3">
-        <v>6.8339886797</v>
+        <v>770.059139879575</v>
       </c>
       <c r="S3">
-        <v>0.006447262072049617</v>
+        <v>0.7239600506878371</v>
       </c>
       <c r="T3">
-        <v>0.006447262072049617</v>
+        <v>0.7239600506878372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H4">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I4">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J4">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2312856666666666</v>
+        <v>2.383963333333333</v>
       </c>
       <c r="N4">
-        <v>0.6938569999999999</v>
+        <v>7.15189</v>
       </c>
       <c r="O4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="P4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="Q4">
-        <v>0.01556490860488889</v>
+        <v>18.07786970175889</v>
       </c>
       <c r="R4">
-        <v>0.140084177444</v>
+        <v>162.70082731583</v>
       </c>
       <c r="S4">
-        <v>0.0001321569944667536</v>
+        <v>0.1529608481875063</v>
       </c>
       <c r="T4">
-        <v>0.0001321569944667536</v>
+        <v>0.1529608481875063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,75 +708,75 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H5">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I5">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J5">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.268274333333333</v>
+        <v>0.07802466666666667</v>
       </c>
       <c r="N5">
-        <v>6.804822999999999</v>
+        <v>0.234074</v>
       </c>
       <c r="O5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="P5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="Q5">
-        <v>0.1526488139017778</v>
+        <v>0.5916700721864445</v>
       </c>
       <c r="R5">
-        <v>1.373839325116</v>
+        <v>5.325030649678</v>
       </c>
       <c r="S5">
-        <v>0.001296095529133867</v>
+        <v>0.005006251155798305</v>
       </c>
       <c r="T5">
-        <v>0.001296095529133867</v>
+        <v>0.005006251155798305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06729733333333333</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H6">
-        <v>0.201892</v>
+        <v>0.008656</v>
       </c>
       <c r="I6">
-        <v>0.008774653069109758</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J6">
-        <v>0.00877465306910976</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05442633333333333</v>
+        <v>1.834290333333333</v>
       </c>
       <c r="N6">
-        <v>0.163279</v>
+        <v>5.502871</v>
       </c>
       <c r="O6">
-        <v>0.003544219059606216</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="P6">
-        <v>0.003544219059606216</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="Q6">
-        <v>0.003662747096444444</v>
+        <v>0.005292539041777778</v>
       </c>
       <c r="R6">
-        <v>0.03296472386800001</v>
+        <v>0.047632851376</v>
       </c>
       <c r="S6">
-        <v>3.109929264897098E-05</v>
+        <v>4.478134173171163E-05</v>
       </c>
       <c r="T6">
-        <v>3.109929264897099E-05</v>
+        <v>4.478134173171164E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H7">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.519140333333333</v>
+        <v>11.28324166666667</v>
       </c>
       <c r="N7">
-        <v>4.557421</v>
+        <v>33.849725</v>
       </c>
       <c r="O7">
-        <v>0.09892575512374291</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="P7">
-        <v>0.0989257551237429</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="Q7">
-        <v>11.51981686156522</v>
+        <v>0.03255591328888889</v>
       </c>
       <c r="R7">
-        <v>103.678351754087</v>
+        <v>0.2930032196</v>
       </c>
       <c r="S7">
-        <v>0.09781132751102059</v>
+        <v>0.0002754627725689849</v>
       </c>
       <c r="T7">
-        <v>0.09781132751102058</v>
+        <v>0.0002754627725689849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H8">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.28324166666667</v>
+        <v>2.383963333333333</v>
       </c>
       <c r="N8">
-        <v>33.849725</v>
+        <v>7.15189</v>
       </c>
       <c r="O8">
-        <v>0.7347597701322829</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="P8">
-        <v>0.7347597701322828</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="Q8">
-        <v>85.56212665328611</v>
+        <v>0.006878528871111112</v>
       </c>
       <c r="R8">
-        <v>770.059139879575</v>
+        <v>0.06190675984000001</v>
       </c>
       <c r="S8">
-        <v>0.7264824860667869</v>
+        <v>5.820075195613546E-05</v>
       </c>
       <c r="T8">
-        <v>0.7264824860667868</v>
+        <v>5.820075195613547E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,495 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H9">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2312856666666666</v>
+        <v>0.07802466666666667</v>
       </c>
       <c r="N9">
-        <v>0.6938569999999999</v>
+        <v>0.234074</v>
       </c>
       <c r="O9">
-        <v>0.01506122161478935</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="P9">
-        <v>0.01506122161478935</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="Q9">
-        <v>1.753865962375444</v>
+        <v>0.0002251271715555556</v>
       </c>
       <c r="R9">
-        <v>15.784793661379</v>
+        <v>0.002026144544</v>
       </c>
       <c r="S9">
-        <v>0.01489155254096872</v>
+        <v>1.90485071965319E-06</v>
       </c>
       <c r="T9">
-        <v>0.01489155254096872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.583115666666667</v>
-      </c>
-      <c r="H10">
-        <v>22.749347</v>
-      </c>
-      <c r="I10">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="J10">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.268274333333333</v>
-      </c>
-      <c r="N10">
-        <v>6.804822999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.1477090340695787</v>
-      </c>
-      <c r="P10">
-        <v>0.1477090340695787</v>
-      </c>
-      <c r="Q10">
-        <v>17.20058663339789</v>
-      </c>
-      <c r="R10">
-        <v>154.805279700581</v>
-      </c>
-      <c r="S10">
-        <v>0.1460450485279998</v>
-      </c>
-      <c r="T10">
-        <v>0.1460450485279998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7.583115666666667</v>
-      </c>
-      <c r="H11">
-        <v>22.749347</v>
-      </c>
-      <c r="I11">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="J11">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05442633333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.163279</v>
-      </c>
-      <c r="O11">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="P11">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="Q11">
-        <v>0.4127211809792222</v>
-      </c>
-      <c r="R11">
-        <v>3.714490628813</v>
-      </c>
-      <c r="S11">
-        <v>0.003504292393586621</v>
-      </c>
-      <c r="T11">
-        <v>0.003504292393586621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.019102</v>
-      </c>
-      <c r="H12">
-        <v>0.057306</v>
-      </c>
-      <c r="I12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.519140333333333</v>
-      </c>
-      <c r="N12">
-        <v>4.557421</v>
-      </c>
-      <c r="O12">
-        <v>0.09892575512374291</v>
-      </c>
-      <c r="P12">
-        <v>0.0989257551237429</v>
-      </c>
-      <c r="Q12">
-        <v>0.02901861864733333</v>
-      </c>
-      <c r="R12">
-        <v>0.261167567826</v>
-      </c>
-      <c r="S12">
-        <v>0.0002463884319117619</v>
-      </c>
-      <c r="T12">
-        <v>0.0002463884319117619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.019102</v>
-      </c>
-      <c r="H13">
-        <v>0.057306</v>
-      </c>
-      <c r="I13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.28324166666667</v>
-      </c>
-      <c r="N13">
-        <v>33.849725</v>
-      </c>
-      <c r="O13">
-        <v>0.7347597701322829</v>
-      </c>
-      <c r="P13">
-        <v>0.7347597701322828</v>
-      </c>
-      <c r="Q13">
-        <v>0.2155324823166666</v>
-      </c>
-      <c r="R13">
-        <v>1.93979234085</v>
-      </c>
-      <c r="S13">
-        <v>0.001830021993446374</v>
-      </c>
-      <c r="T13">
-        <v>0.001830021993446374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.019102</v>
-      </c>
-      <c r="H14">
-        <v>0.057306</v>
-      </c>
-      <c r="I14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.2312856666666666</v>
-      </c>
-      <c r="N14">
-        <v>0.6938569999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.01506122161478935</v>
-      </c>
-      <c r="P14">
-        <v>0.01506122161478935</v>
-      </c>
-      <c r="Q14">
-        <v>0.004418018804666666</v>
-      </c>
-      <c r="R14">
-        <v>0.039762169242</v>
-      </c>
-      <c r="S14">
-        <v>3.751207935387128E-05</v>
-      </c>
-      <c r="T14">
-        <v>3.751207935387128E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.019102</v>
-      </c>
-      <c r="H15">
-        <v>0.057306</v>
-      </c>
-      <c r="I15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.268274333333333</v>
-      </c>
-      <c r="N15">
-        <v>6.804822999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.1477090340695787</v>
-      </c>
-      <c r="P15">
-        <v>0.1477090340695787</v>
-      </c>
-      <c r="Q15">
-        <v>0.04332857631533332</v>
-      </c>
-      <c r="R15">
-        <v>0.3899571868379999</v>
-      </c>
-      <c r="S15">
-        <v>0.0003678900124449971</v>
-      </c>
-      <c r="T15">
-        <v>0.0003678900124449971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.019102</v>
-      </c>
-      <c r="H16">
-        <v>0.057306</v>
-      </c>
-      <c r="I16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.05442633333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.163279</v>
-      </c>
-      <c r="O16">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="P16">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="Q16">
-        <v>0.001039651819333333</v>
-      </c>
-      <c r="R16">
-        <v>0.009356866374</v>
-      </c>
-      <c r="S16">
-        <v>8.827373370623556E-06</v>
-      </c>
-      <c r="T16">
-        <v>8.827373370623556E-06</v>
+        <v>1.90485071965319E-06</v>
       </c>
     </row>
   </sheetData>
